--- a/daily-reports/report 4.xlsx
+++ b/daily-reports/report 4.xlsx
@@ -420,13 +420,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>678.9</v>
+        <v>644.65</v>
       </c>
       <c r="C2">
-        <v>684</v>
+        <v>654.4299999999999</v>
       </c>
       <c r="D2">
-        <v>651.4002</v>
+        <v>620.46</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -434,13 +434,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>139.96</v>
+        <v>144.57</v>
       </c>
       <c r="C3">
-        <v>143.15</v>
+        <v>144.06</v>
       </c>
       <c r="D3">
-        <v>140.09</v>
+        <v>140.67</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -448,13 +448,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>51.96</v>
+        <v>45.07</v>
       </c>
       <c r="C4">
-        <v>55.06</v>
+        <v>49.79</v>
       </c>
       <c r="D4">
-        <v>49.7015</v>
+        <v>38.76</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -462,13 +462,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>3.51</v>
+        <v>3.12</v>
       </c>
       <c r="C5">
-        <v>3.51</v>
+        <v>3.36</v>
       </c>
       <c r="D5">
-        <v>3.36</v>
+        <v>2.83</v>
       </c>
     </row>
   </sheetData>
